--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H2">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I2">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J2">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.19861952049553</v>
+        <v>2.1986275</v>
       </c>
       <c r="N2">
-        <v>2.19861952049553</v>
+        <v>4.397254999999999</v>
       </c>
       <c r="O2">
-        <v>0.5157560634613664</v>
+        <v>0.4935104206364654</v>
       </c>
       <c r="P2">
-        <v>0.5157560634613664</v>
+        <v>0.3937861339617307</v>
       </c>
       <c r="Q2">
-        <v>8.29853538565318</v>
+        <v>8.300824684581249</v>
       </c>
       <c r="R2">
-        <v>8.29853538565318</v>
+        <v>33.203298738325</v>
       </c>
       <c r="S2">
-        <v>0.09577931768553252</v>
+        <v>0.08431377322450638</v>
       </c>
       <c r="T2">
-        <v>0.09577931768553252</v>
+        <v>0.04825886469514645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H3">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I3">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J3">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.06428629148863</v>
+        <v>0.173422</v>
       </c>
       <c r="N3">
-        <v>2.06428629148863</v>
+        <v>0.520266</v>
       </c>
       <c r="O3">
-        <v>0.4842439365386337</v>
+        <v>0.0389268141909519</v>
       </c>
       <c r="P3">
-        <v>0.4842439365386337</v>
+        <v>0.0465912340248027</v>
       </c>
       <c r="Q3">
-        <v>7.791504021658212</v>
+        <v>0.654747390565</v>
       </c>
       <c r="R3">
-        <v>7.791504021658212</v>
+        <v>3.92848434339</v>
       </c>
       <c r="S3">
-        <v>0.08992730695933129</v>
+        <v>0.006650450419700631</v>
       </c>
       <c r="T3">
-        <v>0.08992730695933129</v>
+        <v>0.00570979997736885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H4">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I4">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J4">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.19861952049553</v>
+        <v>2.083028666666667</v>
       </c>
       <c r="N4">
-        <v>2.19861952049553</v>
+        <v>6.249086</v>
       </c>
       <c r="O4">
-        <v>0.5157560634613664</v>
+        <v>0.4675627651725827</v>
       </c>
       <c r="P4">
-        <v>0.5157560634613664</v>
+        <v>0.5596226320134666</v>
       </c>
       <c r="Q4">
-        <v>2.704115222196631</v>
+        <v>7.864386202281668</v>
       </c>
       <c r="R4">
-        <v>2.704115222196631</v>
+        <v>47.18631721369</v>
       </c>
       <c r="S4">
-        <v>0.03121012309868818</v>
+        <v>0.07988074679384265</v>
       </c>
       <c r="T4">
-        <v>0.03121012309868818</v>
+        <v>0.06858228502607512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22991504304809</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H5">
-        <v>1.22991504304809</v>
+        <v>3.981953</v>
       </c>
       <c r="I5">
-        <v>0.06051334208119499</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J5">
-        <v>0.06051334208119499</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.06428629148863</v>
+        <v>2.1986275</v>
       </c>
       <c r="N5">
-        <v>2.06428629148863</v>
+        <v>4.397254999999999</v>
       </c>
       <c r="O5">
-        <v>0.4842439365386337</v>
+        <v>0.4935104206364654</v>
       </c>
       <c r="P5">
-        <v>0.4842439365386337</v>
+        <v>0.3937861339617307</v>
       </c>
       <c r="Q5">
-        <v>2.538896763059821</v>
+        <v>2.918277123169167</v>
       </c>
       <c r="R5">
-        <v>2.538896763059821</v>
+        <v>17.509662739015</v>
       </c>
       <c r="S5">
-        <v>0.02930321898250682</v>
+        <v>0.0296417482501695</v>
       </c>
       <c r="T5">
-        <v>0.02930321898250682</v>
+        <v>0.0254491715307923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H6">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I6">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J6">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.19861952049553</v>
+        <v>0.173422</v>
       </c>
       <c r="N6">
-        <v>2.19861952049553</v>
+        <v>0.520266</v>
       </c>
       <c r="O6">
-        <v>0.5157560634613664</v>
+        <v>0.0389268141909519</v>
       </c>
       <c r="P6">
-        <v>0.5157560634613664</v>
+        <v>0.0465912340248027</v>
       </c>
       <c r="Q6">
-        <v>8.032723911238286</v>
+        <v>0.2301860843886667</v>
       </c>
       <c r="R6">
-        <v>8.032723911238286</v>
+        <v>2.071674759498</v>
       </c>
       <c r="S6">
-        <v>0.09271139780939885</v>
+        <v>0.002338063753428398</v>
       </c>
       <c r="T6">
-        <v>0.09271139780939885</v>
+        <v>0.003011046363160468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H7">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I7">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J7">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.06428629148863</v>
+        <v>2.083028666666667</v>
       </c>
       <c r="N7">
-        <v>2.06428629148863</v>
+        <v>6.249086</v>
       </c>
       <c r="O7">
-        <v>0.4842439365386337</v>
+        <v>0.4675627651725827</v>
       </c>
       <c r="P7">
-        <v>0.4842439365386337</v>
+        <v>0.5596226320134666</v>
       </c>
       <c r="Q7">
-        <v>7.541933335307088</v>
+        <v>2.764840749439778</v>
       </c>
       <c r="R7">
-        <v>7.541933335307088</v>
+        <v>24.883566744958</v>
       </c>
       <c r="S7">
-        <v>0.08704683360564212</v>
+        <v>0.02808325254515355</v>
       </c>
       <c r="T7">
-        <v>0.08704683360564212</v>
+        <v>0.03616666796096035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H8">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I8">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J8">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.19861952049553</v>
+        <v>2.1986275</v>
       </c>
       <c r="N8">
-        <v>2.19861952049553</v>
+        <v>4.397254999999999</v>
       </c>
       <c r="O8">
-        <v>0.5157560634613664</v>
+        <v>0.4935104206364654</v>
       </c>
       <c r="P8">
-        <v>0.5157560634613664</v>
+        <v>0.3937861339617307</v>
       </c>
       <c r="Q8">
-        <v>16.68002451220025</v>
+        <v>11.406694935495</v>
       </c>
       <c r="R8">
-        <v>16.68002451220025</v>
+        <v>68.44016961296998</v>
       </c>
       <c r="S8">
-        <v>0.1925160636801635</v>
+        <v>0.1158609567816656</v>
       </c>
       <c r="T8">
-        <v>0.1925160636801635</v>
+        <v>0.09947339603498112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H9">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I9">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J9">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.06428629148863</v>
+        <v>0.173422</v>
       </c>
       <c r="N9">
-        <v>2.06428629148863</v>
+        <v>0.520266</v>
       </c>
       <c r="O9">
-        <v>0.4842439365386337</v>
+        <v>0.0389268141909519</v>
       </c>
       <c r="P9">
-        <v>0.4842439365386337</v>
+        <v>0.0465912340248027</v>
       </c>
       <c r="Q9">
-        <v>15.66089340208753</v>
+        <v>0.8997303313559998</v>
       </c>
       <c r="R9">
-        <v>15.66089340208753</v>
+        <v>8.097572982203999</v>
       </c>
       <c r="S9">
-        <v>0.1807535444135167</v>
+        <v>0.009138809938013604</v>
       </c>
       <c r="T9">
-        <v>0.1807535444135167</v>
+        <v>0.01176930286315792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.17730865000538</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H10">
-        <v>3.17730865000538</v>
+        <v>15.564294</v>
       </c>
       <c r="I10">
-        <v>0.156327517353406</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J10">
-        <v>0.156327517353406</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.19861952049553</v>
+        <v>2.083028666666667</v>
       </c>
       <c r="N10">
-        <v>2.19861952049553</v>
+        <v>6.249086</v>
       </c>
       <c r="O10">
-        <v>0.5157560634613664</v>
+        <v>0.4675627651725827</v>
       </c>
       <c r="P10">
-        <v>0.5157560634613664</v>
+        <v>0.5596226320134666</v>
       </c>
       <c r="Q10">
-        <v>6.985692820541129</v>
+        <v>10.806956859476</v>
       </c>
       <c r="R10">
-        <v>6.985692820541129</v>
+        <v>97.262611735284</v>
       </c>
       <c r="S10">
-        <v>0.08062686496088113</v>
+        <v>0.1097692511913169</v>
       </c>
       <c r="T10">
-        <v>0.08062686496088113</v>
+        <v>0.1413649666745859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.17730865000538</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H11">
-        <v>3.17730865000538</v>
+        <v>23.032583</v>
       </c>
       <c r="I11">
-        <v>0.156327517353406</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J11">
-        <v>0.156327517353406</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.06428629148863</v>
+        <v>2.1986275</v>
       </c>
       <c r="N11">
-        <v>2.06428629148863</v>
+        <v>4.397254999999999</v>
       </c>
       <c r="O11">
-        <v>0.4842439365386337</v>
+        <v>0.4935104206364654</v>
       </c>
       <c r="P11">
-        <v>0.4842439365386337</v>
+        <v>0.3937861339617307</v>
       </c>
       <c r="Q11">
-        <v>6.558874690034353</v>
+        <v>16.88002345994417</v>
       </c>
       <c r="R11">
-        <v>6.558874690034353</v>
+        <v>101.280140759665</v>
       </c>
       <c r="S11">
-        <v>0.07570065239252491</v>
+        <v>0.1714550691173737</v>
       </c>
       <c r="T11">
-        <v>0.07570065239252491</v>
+        <v>0.14720418738348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.90291786773438</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H12">
-        <v>0.90291786773438</v>
+        <v>23.032583</v>
       </c>
       <c r="I12">
-        <v>0.04442467641181402</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J12">
-        <v>0.04442467641181402</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.19861952049553</v>
+        <v>0.173422</v>
       </c>
       <c r="N12">
-        <v>2.19861952049553</v>
+        <v>0.520266</v>
       </c>
       <c r="O12">
-        <v>0.5157560634613664</v>
+        <v>0.0389268141909519</v>
       </c>
       <c r="P12">
-        <v>0.5157560634613664</v>
+        <v>0.0465912340248027</v>
       </c>
       <c r="Q12">
-        <v>1.985172849405009</v>
+        <v>1.331452203008667</v>
       </c>
       <c r="R12">
-        <v>1.985172849405009</v>
+        <v>11.983069827078</v>
       </c>
       <c r="S12">
-        <v>0.02291229622670221</v>
+        <v>0.01352392844921352</v>
       </c>
       <c r="T12">
-        <v>0.02291229622670221</v>
+        <v>0.01741662326911986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.90291786773438</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H13">
-        <v>0.90291786773438</v>
+        <v>23.032583</v>
       </c>
       <c r="I13">
-        <v>0.04442467641181402</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J13">
-        <v>0.04442467641181402</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.06428629148863</v>
+        <v>2.083028666666667</v>
       </c>
       <c r="N13">
-        <v>2.06428629148863</v>
+        <v>6.249086</v>
       </c>
       <c r="O13">
-        <v>0.4842439365386337</v>
+        <v>0.4675627651725827</v>
       </c>
       <c r="P13">
-        <v>0.4842439365386337</v>
+        <v>0.5596226320134666</v>
       </c>
       <c r="Q13">
-        <v>1.863880976704225</v>
+        <v>15.99251021879311</v>
       </c>
       <c r="R13">
-        <v>1.863880976704225</v>
+        <v>143.932591969138</v>
       </c>
       <c r="S13">
-        <v>0.0215123801851118</v>
+        <v>0.1624403515451364</v>
       </c>
       <c r="T13">
-        <v>0.0215123801851118</v>
+        <v>0.2091967890239438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J14">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.1986275</v>
+      </c>
+      <c r="N14">
+        <v>4.397254999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.4935104206364654</v>
+      </c>
+      <c r="P14">
+        <v>0.3937861339617307</v>
+      </c>
+      <c r="Q14">
+        <v>7.088562676213333</v>
+      </c>
+      <c r="R14">
+        <v>42.53137605728</v>
+      </c>
+      <c r="S14">
+        <v>0.07200049256311951</v>
+      </c>
+      <c r="T14">
+        <v>0.06181662667382938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J15">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.173422</v>
+      </c>
+      <c r="N15">
+        <v>0.520266</v>
+      </c>
+      <c r="O15">
+        <v>0.0389268141909519</v>
+      </c>
+      <c r="P15">
+        <v>0.0465912340248027</v>
+      </c>
+      <c r="Q15">
+        <v>0.5591273266773333</v>
+      </c>
+      <c r="R15">
+        <v>5.032145940096001</v>
+      </c>
+      <c r="S15">
+        <v>0.005679210971972885</v>
+      </c>
+      <c r="T15">
+        <v>0.007313901307312521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J16">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.083028666666667</v>
+      </c>
+      <c r="N16">
+        <v>6.249086</v>
+      </c>
+      <c r="O16">
+        <v>0.4675627651725827</v>
+      </c>
+      <c r="P16">
+        <v>0.5596226320134666</v>
+      </c>
+      <c r="Q16">
+        <v>6.71586217311289</v>
+      </c>
+      <c r="R16">
+        <v>60.44275955801601</v>
+      </c>
+      <c r="S16">
+        <v>0.06821487042397957</v>
+      </c>
+      <c r="T16">
+        <v>0.08784967356104065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9062475</v>
+      </c>
+      <c r="H17">
+        <v>1.812495</v>
+      </c>
+      <c r="I17">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J17">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.1986275</v>
+      </c>
+      <c r="N17">
+        <v>4.397254999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4935104206364654</v>
+      </c>
+      <c r="P17">
+        <v>0.3937861339617307</v>
+      </c>
+      <c r="Q17">
+        <v>1.99250067530625</v>
+      </c>
+      <c r="R17">
+        <v>7.970002701224999</v>
+      </c>
+      <c r="S17">
+        <v>0.02023838069963067</v>
+      </c>
+      <c r="T17">
+        <v>0.01158388764350141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9062475</v>
+      </c>
+      <c r="H18">
+        <v>1.812495</v>
+      </c>
+      <c r="I18">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J18">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.173422</v>
+      </c>
+      <c r="N18">
+        <v>0.520266</v>
+      </c>
+      <c r="O18">
+        <v>0.0389268141909519</v>
+      </c>
+      <c r="P18">
+        <v>0.0465912340248027</v>
+      </c>
+      <c r="Q18">
+        <v>0.157163253945</v>
+      </c>
+      <c r="R18">
+        <v>0.94297952367</v>
+      </c>
+      <c r="S18">
+        <v>0.001596350658622868</v>
+      </c>
+      <c r="T18">
+        <v>0.001370560244683082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9062475</v>
+      </c>
+      <c r="H19">
+        <v>1.812495</v>
+      </c>
+      <c r="I19">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J19">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.083028666666667</v>
+      </c>
+      <c r="N19">
+        <v>6.249086</v>
+      </c>
+      <c r="O19">
+        <v>0.4675627651725827</v>
+      </c>
+      <c r="P19">
+        <v>0.5596226320134666</v>
+      </c>
+      <c r="Q19">
+        <v>1.887739521595</v>
+      </c>
+      <c r="R19">
+        <v>11.32643712957</v>
+      </c>
+      <c r="S19">
+        <v>0.01917429267315363</v>
+      </c>
+      <c r="T19">
+        <v>0.01646224976686084</v>
       </c>
     </row>
   </sheetData>
